--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="60" windowWidth="22932" windowHeight="9504"/>
+    <workbookView xWindow="90" yWindow="60" windowWidth="22935" windowHeight="9510"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Recursion 2</t>
   </si>
@@ -34,12 +34,6 @@
   </si>
   <si>
     <t>Hash table</t>
-  </si>
-  <si>
-    <t>Behavioural Interview</t>
-  </si>
-  <si>
-    <t>Coding Interview strategy</t>
   </si>
   <si>
     <t>Top Interview Questions Easy</t>
@@ -57,8 +51,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,6 +90,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -174,6 +173,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -208,6 +208,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -383,25 +384,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -420,7 +421,7 @@
         <v>44344</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -440,7 +441,7 @@
         <v>44374</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -460,7 +461,7 @@
         <v>44395</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -480,7 +481,7 @@
         <v>44406</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -500,7 +501,7 @@
         <v>44420</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -520,7 +521,7 @@
         <v>44445</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D8">
         <f t="shared" si="1"/>
         <v>136</v>
@@ -534,7 +535,7 @@
         <v>44480</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D9">
         <f t="shared" si="1"/>
         <v>136</v>
@@ -548,9 +549,9 @@
         <v>44480</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10">
         <v>49</v>
@@ -562,19 +563,15 @@
       <c r="F10">
         <f t="shared" si="0"/>
         <v>6.166666666666667</v>
-      </c>
-      <c r="H10">
-        <f>B10</f>
-        <v>49</v>
       </c>
       <c r="J10" s="1">
         <f t="shared" si="2"/>
         <v>44480</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B11">
         <v>51</v>
@@ -586,19 +583,15 @@
       <c r="F11">
         <f t="shared" si="0"/>
         <v>7.8666666666666663</v>
-      </c>
-      <c r="H11">
-        <f>H10+B11</f>
-        <v>100</v>
       </c>
       <c r="J11" s="1">
         <f t="shared" si="2"/>
         <v>44529</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B12">
         <v>51</v>
@@ -611,68 +604,21 @@
         <f t="shared" si="0"/>
         <v>9.5666666666666664</v>
       </c>
-      <c r="H12">
-        <f>H11+B12</f>
-        <v>151</v>
-      </c>
       <c r="J12" s="1">
-        <f t="shared" si="2"/>
-        <v>44580</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="D13">
-        <f t="shared" si="1"/>
-        <v>287</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="0"/>
-        <v>9.5666666666666664</v>
-      </c>
+        <v>44852</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J13" s="1">
-        <f t="shared" si="2"/>
-        <v>44631</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14">
-        <v>28</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="1"/>
-        <v>315</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="0"/>
-        <v>10.5</v>
-      </c>
-      <c r="J14" s="1">
-        <f t="shared" si="2"/>
-        <v>44631</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15">
-        <v>9</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="1"/>
-        <v>324</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="0"/>
-        <v>10.8</v>
-      </c>
-      <c r="J15" s="1">
-        <f t="shared" si="2"/>
-        <v>44659</v>
-      </c>
+        <f>J12+51</f>
+        <v>44903</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J15" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -680,24 +626,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
